--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -1098,8 +1098,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about changes to access arrangements and public rights of way
-</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1304,8 +1303,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1441,8 +1439,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1718,8 +1715,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1855,9 +1851,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2071,9 +2065,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assessment of potential impacts on protected species, important habitats, 
-biodiversity features, geological features, and archaeological features
-</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2162,10 +2154,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about biodiversity net gain requirements for the development,
-including pre-development biodiversity value, habitat loss details, and
-supporting documentation
-</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -2654,8 +2643,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -2690,9 +2678,7 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -2781,8 +2767,7 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -2871,9 +2856,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for capturing information about employment impacts of a development 
-proposal, including existing and proposed employee counts
-</t>
+          <t>How the proposed development will impact employment, including existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -3094,8 +3077,7 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the current and previous use of the site, including contamination status and supporting documents.
-</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -3385,9 +3367,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about flood risk assessments for planning applications including flood risk area status, 
-data sources, assessment documents, watercourse proximity, flood risk impacts, and surface water disposal methods
-</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -3557,9 +3537,7 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about foul sewage disposal methods and connection to existing 
-drainage systems for development proposals
-</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -3675,9 +3653,7 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about hazardous substances involved in the proposal,
-including substance types, quantities, and consent requirements
-</t>
+          <t>What hazardous substances may be used as part of the development</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -3859,7 +3835,7 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Hours of opening for each non-residential use proposed</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -4108,8 +4084,7 @@
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the materials used in the development, including both existing and proposed materials
-</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -4361,7 +4336,7 @@
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>Information about non-residential floorspace changes including use class details and room counts for specific accommodation types</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -4706,8 +4681,7 @@
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about ownership of the site and/or property for development, including agricultural tenants and notification requirements.
-</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -5172,8 +5146,7 @@
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any pre-application advice sought from the planning authority
-</t>
+          <t>Details of pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -5316,9 +5289,7 @@
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about site activities, processes, and waste management development
-including facility types, capacities, and throughput details
-</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -5628,8 +5599,7 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about what development, works or change of use is being proposed
-</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -5826,9 +5796,7 @@
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about residential units including existing and proposed unit counts, 
-with detailed breakdowns by tenure and housing type
-</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -6380,9 +6348,7 @@
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the size of the development site, including 
-the area measurement and source of the measurement
-</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -6444,9 +6410,7 @@
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -6733,8 +6697,7 @@
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details needed to support a site visit by the planning authority
-</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -6916,9 +6879,7 @@
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the disposal of trade effluents or waste, including whether 
-disposal is required and details about the nature, volume and means of disposal
-</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -6980,8 +6941,7 @@
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about trees and hedges on or adjacent to the development site, including any that pose risks or need to be removed
-</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr"/>
@@ -7000,9 +6960,7 @@
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Detailed information about parking spaces by vehicle type, including existing 
-and proposed counts with net change calculations
-</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -7165,9 +7123,7 @@
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about waste storage and recycling arrangements for developments, 
-including whether waste storage areas are needed and details of recycling provisions
-</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6944,45 +6944,49 @@
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr"/>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>Trees on site</t>
+        </is>
+      </c>
       <c r="D206" s="2" t="inlineStr"/>
       <c r="E206" s="2" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="inlineStr"/>
-      <c r="H206" s="2" t="inlineStr"/>
-      <c r="I206" s="2" t="inlineStr"/>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>Whether trees or hedges are present on the proposed development site</t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A207" s="2" t="n"/>
+      <c r="B207" s="2" t="n"/>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr"/>
       <c r="E207" s="2" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I207" s="2" t="inlineStr">
@@ -6992,8 +6996,16 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n"/>
-      <c r="B208" s="2" t="n"/>
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -7001,24 +7013,24 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I208" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7032,24 +7044,24 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7063,14 +7075,14 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -7094,14 +7106,14 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>Difference in spaces</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -7116,32 +7128,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A212" s="2" t="n"/>
+      <c r="B212" s="2" t="n"/>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="E212" s="2" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I212" s="2" t="inlineStr">
@@ -7151,11 +7159,19 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n"/>
-      <c r="B213" s="2" t="n"/>
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Needs waste storage area</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr"/>
@@ -7163,17 +7179,17 @@
       <c r="F213" s="2" t="inlineStr"/>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I213" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7182,7 +7198,7 @@
       <c r="B214" s="2" t="n"/>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr"/>
@@ -7190,17 +7206,17 @@
       <c r="F214" s="2" t="inlineStr"/>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H214" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I214" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7225,7 @@
       <c r="B215" s="2" t="n"/>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr"/>
@@ -7217,15 +7233,42 @@
       <c r="F215" s="2" t="inlineStr"/>
       <c r="G215" s="2" t="inlineStr">
         <is>
+          <t>Does the proposal include separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n"/>
+      <c r="B216" s="2" t="n"/>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr"/>
+      <c r="E216" s="2" t="inlineStr"/>
+      <c r="F216" s="2" t="inlineStr"/>
+      <c r="G216" s="2" t="inlineStr">
+        <is>
           <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="inlineStr">
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7235,23 +7278,20 @@
   <mergeCells count="62">
     <mergeCell ref="A149:A153"/>
     <mergeCell ref="A189:A197"/>
-    <mergeCell ref="A206"/>
     <mergeCell ref="A92:A97"/>
     <mergeCell ref="B68"/>
     <mergeCell ref="A187:A188"/>
     <mergeCell ref="A164:A170"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="B134:B148"/>
+    <mergeCell ref="A208:A212"/>
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="A68"/>
     <mergeCell ref="B154:B163"/>
-    <mergeCell ref="A212:A215"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B102:B107"/>
     <mergeCell ref="B171:B186"/>
     <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B206"/>
-    <mergeCell ref="B207:B211"/>
     <mergeCell ref="B108:B114"/>
     <mergeCell ref="A82:A91"/>
     <mergeCell ref="B187:B188"/>
@@ -7263,19 +7303,22 @@
     <mergeCell ref="A98:A101"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A171:A186"/>
+    <mergeCell ref="A213:A216"/>
     <mergeCell ref="B189:B197"/>
     <mergeCell ref="A198:A203"/>
     <mergeCell ref="B53:B67"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B75:B81"/>
     <mergeCell ref="B44:B49"/>
+    <mergeCell ref="A206:A207"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B82:B91"/>
-    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="B206:B207"/>
     <mergeCell ref="B123:B133"/>
     <mergeCell ref="A134:A148"/>
     <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B208:B212"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B149:B153"/>
@@ -7289,8 +7332,8 @@
     <mergeCell ref="A154:A163"/>
     <mergeCell ref="B198:B203"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B213:B216"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B212:B215"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A102:A107"/>
     <mergeCell ref="A40:A43"/>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -4244,7 +4244,7 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Additional material information</t>
+          <t>Providing additional material information</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr"/>
@@ -4252,12 +4252,12 @@
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Additional context or details about the materials to be used in the development</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact employment, including existing and proposed employee numbers</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -711,7 +711,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4559,14 +4559,14 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Use class</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4590,24 +4590,24 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4621,14 +4621,14 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4652,14 +4652,14 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4674,32 +4674,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A134" s="2" t="n"/>
+      <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr"/>
+          <t>Room details[]</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>Net additional rooms</t>
+        </is>
+      </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4709,11 +4705,19 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n"/>
-      <c r="B135" s="2" t="n"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr"/>
@@ -4721,7 +4725,7 @@
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -4740,33 +4744,25 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Agricultural tenants</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr"/>
+      <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4785,13 +4781,13 @@
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4801,7 +4797,7 @@
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4820,13 +4816,13 @@
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4855,13 +4851,13 @@
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4890,13 +4886,13 @@
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4906,7 +4902,7 @@
       </c>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4920,19 +4916,23 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Notice date</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -4946,20 +4946,24 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Notice date</t>
+        </is>
+      </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -4973,19 +4977,15 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>Newspaper name</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr"/>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5009,19 +5009,19 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Publication date</t>
+          <t>Newspaper name</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -5035,25 +5035,29 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>Publication date</t>
+        </is>
+      </c>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5062,7 +5066,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Ownership certificate type</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5070,12 +5074,12 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -5089,7 +5093,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5097,7 +5101,7 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -5116,7 +5120,7 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5124,12 +5128,12 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
@@ -5139,19 +5143,11 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5159,26 +5155,34 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n"/>
-      <c r="B150" s="2" t="n"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr"/>
@@ -5186,17 +5190,17 @@
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5209,7 @@
       <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5213,7 +5217,7 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -5232,7 +5236,7 @@
       <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr"/>
@@ -5240,7 +5244,7 @@
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -5259,7 +5263,7 @@
       <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr"/>
@@ -5267,7 +5271,7 @@
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -5282,19 +5286,11 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A154" s="2" t="n"/>
+      <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr"/>
@@ -5302,7 +5298,7 @@
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5312,16 +5308,24 @@
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n"/>
-      <c r="B155" s="2" t="n"/>
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr"/>
@@ -5329,12 +5333,12 @@
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5348,24 +5352,20 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>Waste management facility type</t>
-        </is>
-      </c>
+          <t>Proposal waste management</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr"/>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -5384,24 +5384,24 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Waste management facility type</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5415,19 +5415,19 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
@@ -5446,14 +5446,14 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5472,19 +5472,19 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5508,14 +5508,14 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5539,14 +5539,14 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5570,14 +5570,14 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5592,46 +5592,50 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="E164" s="2" t="inlineStr"/>
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n"/>
-      <c r="B165" s="2" t="n"/>
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5639,12 +5643,12 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
@@ -5658,7 +5662,7 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5666,17 +5670,17 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5689,7 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr"/>
@@ -5693,17 +5697,17 @@
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5712,7 +5716,7 @@
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr"/>
@@ -5720,17 +5724,17 @@
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5743,7 @@
       <c r="B169" s="2" t="n"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr"/>
@@ -5747,12 +5751,12 @@
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5766,7 +5770,7 @@
       <c r="B170" s="2" t="n"/>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr"/>
@@ -5774,34 +5778,26 @@
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A171" s="2" t="n"/>
+      <c r="B171" s="2" t="n"/>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr"/>
@@ -5809,7 +5805,7 @@
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5824,28 +5820,32 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n"/>
-      <c r="B172" s="2" t="n"/>
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr"/>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -5864,14 +5864,14 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
+          <t>Tenure type</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -5895,23 +5895,19 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
@@ -5935,17 +5931,13 @@
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
@@ -5979,22 +5971,22 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6018,12 +6010,12 @@
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -6033,7 +6025,7 @@
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6052,13 +6044,17 @@
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6068,7 +6064,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6082,28 +6078,28 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
+          <t>Total units</t>
         </is>
       </c>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6122,17 +6118,13 @@
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -6166,22 +6158,22 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I181" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6205,12 +6197,12 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
@@ -6220,7 +6212,7 @@
       </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6239,13 +6231,17 @@
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
@@ -6255,7 +6251,7 @@
       </c>
       <c r="I183" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6264,15 +6260,23 @@
       <c r="B184" s="2" t="n"/>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr"/>
-      <c r="E184" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
@@ -6282,7 +6286,7 @@
       </c>
       <c r="I184" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6295,7 @@
       <c r="B185" s="2" t="n"/>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr"/>
@@ -6299,7 +6303,7 @@
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -6318,7 +6322,7 @@
       <c r="B186" s="2" t="n"/>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr"/>
@@ -6326,7 +6330,7 @@
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -6341,19 +6345,11 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A187" s="2" t="n"/>
+      <c r="B187" s="2" t="n"/>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr"/>
@@ -6361,7 +6357,7 @@
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -6376,11 +6372,19 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n"/>
-      <c r="B188" s="2" t="n"/>
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr"/>
@@ -6388,51 +6392,39 @@
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I188" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A189" s="2" t="n"/>
+      <c r="B189" s="2" t="n"/>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr"/>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I189" s="2" t="inlineStr">
@@ -6442,8 +6434,16 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n"/>
-      <c r="B190" s="2" t="n"/>
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -6451,19 +6451,19 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I190" s="2" t="inlineStr">
@@ -6482,14 +6482,14 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -6513,19 +6513,19 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I192" s="2" t="inlineStr">
@@ -6544,14 +6544,14 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
@@ -6575,14 +6575,14 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -6606,14 +6606,14 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr"/>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
@@ -6637,19 +6637,19 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I196" s="2" t="inlineStr">
@@ -6668,14 +6668,14 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -6690,46 +6690,50 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A198" s="2" t="n"/>
+      <c r="B198" s="2" t="n"/>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I198" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n"/>
-      <c r="B199" s="2" t="n"/>
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr"/>
@@ -6737,12 +6741,12 @@
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I199" s="2" t="inlineStr">
@@ -6756,7 +6760,7 @@
       <c r="B200" s="2" t="n"/>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr"/>
@@ -6764,17 +6768,17 @@
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I200" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6783,19 +6787,15 @@
       <c r="B201" s="2" t="n"/>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr"/>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="I201" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6819,14 +6819,14 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
       <c r="F202" s="2" t="inlineStr"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
@@ -6850,14 +6850,14 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
@@ -6872,32 +6872,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A204" s="2" t="n"/>
+      <c r="B204" s="2" t="n"/>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I204" s="2" t="inlineStr">
@@ -6907,11 +6903,19 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n"/>
-      <c r="B205" s="2" t="n"/>
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr"/>
@@ -6919,34 +6923,26 @@
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A206" s="2" t="n"/>
+      <c r="B206" s="2" t="n"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr"/>
@@ -6954,26 +6950,34 @@
       <c r="F206" s="2" t="inlineStr"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I206" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n"/>
-      <c r="B207" s="2" t="n"/>
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr"/>
@@ -6981,7 +6985,7 @@
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -6996,36 +7000,24 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A208" s="2" t="n"/>
+      <c r="B208" s="2" t="n"/>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr"/>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I208" s="2" t="inlineStr">
@@ -7035,8 +7027,16 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n"/>
-      <c r="B209" s="2" t="n"/>
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -7044,24 +7044,24 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7075,24 +7075,24 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I210" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7106,14 +7106,14 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -7137,14 +7137,14 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>Difference in spaces</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
@@ -7159,32 +7159,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A213" s="2" t="n"/>
+      <c r="B213" s="2" t="n"/>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="E213" s="2" t="inlineStr"/>
       <c r="F213" s="2" t="inlineStr"/>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I213" s="2" t="inlineStr">
@@ -7194,11 +7190,19 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n"/>
-      <c r="B214" s="2" t="n"/>
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Needs waste storage area</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr"/>
@@ -7206,17 +7210,17 @@
       <c r="F214" s="2" t="inlineStr"/>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="H214" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I214" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7229,7 @@
       <c r="B215" s="2" t="n"/>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr"/>
@@ -7233,17 +7237,17 @@
       <c r="F215" s="2" t="inlineStr"/>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H215" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I215" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7252,7 +7256,7 @@
       <c r="B216" s="2" t="n"/>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="D216" s="2" t="inlineStr"/>
@@ -7260,15 +7264,42 @@
       <c r="F216" s="2" t="inlineStr"/>
       <c r="G216" s="2" t="inlineStr">
         <is>
+          <t>Does the proposal include separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n"/>
+      <c r="B217" s="2" t="n"/>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr"/>
+      <c r="E217" s="2" t="inlineStr"/>
+      <c r="F217" s="2" t="inlineStr"/>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
           <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="inlineStr">
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7276,66 +7307,66 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A189:A197"/>
+    <mergeCell ref="B135:B149"/>
+    <mergeCell ref="B123:B134"/>
     <mergeCell ref="A92:A97"/>
     <mergeCell ref="B68"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B214:B217"/>
     <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B134:B148"/>
-    <mergeCell ref="A208:A212"/>
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="A68"/>
-    <mergeCell ref="B154:B163"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A164"/>
+    <mergeCell ref="B199:B204"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B171:B186"/>
     <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A123:A134"/>
+    <mergeCell ref="B172:B187"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A165:A171"/>
     <mergeCell ref="B108:B114"/>
     <mergeCell ref="A82:A91"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="A204:A205"/>
     <mergeCell ref="B115:B122"/>
     <mergeCell ref="B2:B20"/>
+    <mergeCell ref="A190:A198"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B155:B164"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A171:A186"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="B189:B197"/>
-    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="A188:A189"/>
     <mergeCell ref="B53:B67"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B75:B81"/>
     <mergeCell ref="B44:B49"/>
-    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="A135:A149"/>
     <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B209:B213"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B82:B91"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="A134:A148"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="B165:B171"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="A172:A187"/>
+    <mergeCell ref="B190:B198"/>
     <mergeCell ref="A108:A114"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A115:A122"/>
     <mergeCell ref="A53:A67"/>
-    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="B188:B189"/>
     <mergeCell ref="B92:B97"/>
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A154:A163"/>
-    <mergeCell ref="B198:B203"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B213:B216"/>
     <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A199:A204"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A207:A208"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A75:A81"/>
   </mergeCells>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -506,10 +506,14 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
@@ -533,10 +537,14 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
@@ -560,10 +568,14 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
@@ -587,10 +599,14 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
@@ -614,10 +630,14 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
@@ -641,10 +661,14 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
@@ -668,15 +692,19 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -699,15 +727,19 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -730,15 +762,19 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -761,15 +797,19 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -792,20 +832,24 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
@@ -827,20 +871,24 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
@@ -862,20 +910,24 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
@@ -897,20 +949,24 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
@@ -932,20 +988,24 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
@@ -967,20 +1027,24 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
@@ -1002,15 +1066,19 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -1033,15 +1101,19 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1064,15 +1136,19 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,75 +1107,67 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1187,7 +1175,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1206,7 +1194,7 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1214,7 +1202,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1233,7 +1221,7 @@
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1241,7 +1229,7 @@
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1260,7 +1248,7 @@
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1268,7 +1256,7 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1287,20 +1275,24 @@
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1319,14 +1311,14 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1341,23 +1333,27 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1372,27 +1368,23 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1416,14 +1408,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1433,7 +1429,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1452,18 +1448,18 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1473,51 +1469,47 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1525,14 +1517,18 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1542,7 +1538,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1561,13 +1557,13 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1577,7 +1573,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1596,13 +1592,13 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1631,13 +1627,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1666,13 +1662,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1682,7 +1678,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1696,18 +1692,14 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1731,19 +1723,19 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -1753,58 +1745,58 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1828,14 +1820,18 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1845,7 +1841,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1864,18 +1860,18 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1885,51 +1881,47 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1937,14 +1929,18 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1954,7 +1950,7 @@
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1973,13 +1969,13 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -1989,7 +1985,7 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2008,13 +2004,13 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2043,13 +2039,13 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2078,13 +2074,13 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2094,59 +2090,51 @@
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2154,7 +2142,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2173,7 +2161,7 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2181,7 +2169,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2196,11 +2184,19 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Biodiversity gain condition applies</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2208,12 +2204,12 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2223,32 +2219,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2267,19 +2259,19 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2293,24 +2285,24 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2329,19 +2321,19 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2360,24 +2352,24 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2391,19 +2383,19 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2422,24 +2414,28 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2458,18 +2454,18 @@
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2493,23 +2489,23 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2523,28 +2519,24 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2558,19 +2550,19 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2589,24 +2581,24 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2620,14 +2612,18 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2637,7 +2633,7 @@
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2656,13 +2652,13 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2677,27 +2673,27 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2714,17 +2710,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2732,12 +2728,12 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -2747,19 +2743,11 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -2767,17 +2755,17 @@
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2774,7 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -2794,7 +2782,7 @@
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2809,11 +2797,19 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2821,7 +2817,7 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2831,24 +2827,16 @@
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2856,12 +2844,12 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2875,7 +2863,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2883,12 +2871,12 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2898,24 +2886,36 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="2" t="n"/>
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2925,16 +2925,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2942,14 +2934,14 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2973,14 +2965,14 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2999,19 +2991,19 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -3035,14 +3027,14 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -3066,14 +3058,14 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -3092,70 +3084,70 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -3163,24 +3155,24 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3194,14 +3186,14 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3211,7 +3203,7 @@
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3220,24 +3212,20 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -3251,7 +3239,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3259,17 +3247,17 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3266,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3286,12 +3274,12 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3305,7 +3293,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3313,17 +3301,17 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3320,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3340,7 +3328,7 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -3359,7 +3347,7 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3367,7 +3355,7 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -3386,7 +3374,7 @@
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3394,26 +3382,34 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3421,34 +3417,26 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3456,17 +3444,17 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3463,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3483,12 +3471,12 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -3502,7 +3490,7 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3510,17 +3498,17 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3517,7 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3537,7 +3525,7 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3556,7 +3544,7 @@
       <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3564,12 +3552,12 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3579,11 +3567,19 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3591,12 +3587,12 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3606,19 +3602,11 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3626,17 +3614,17 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3633,7 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3653,17 +3641,17 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3660,7 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3680,26 +3668,34 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>What hazardous substances may be used as part of the development</t>
+        </is>
+      </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr"/>
@@ -3707,42 +3703,38 @@
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A102" s="2" t="n"/>
+      <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3766,24 +3758,24 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3797,24 +3789,24 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3823,24 +3815,20 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3854,7 +3842,7 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr"/>
@@ -3862,58 +3850,62 @@
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3921,24 +3913,24 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3952,24 +3944,28 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3988,23 +3984,23 @@
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4023,23 +4019,27 @@
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4063,12 +4063,12 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -4092,77 +4092,69 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -4170,24 +4162,24 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4201,14 +4193,14 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4232,19 +4224,19 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -4263,14 +4255,14 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4289,19 +4281,15 @@
       <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr"/>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4311,7 +4299,7 @@
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4320,20 +4308,24 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -4352,14 +4344,14 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4374,28 +4366,32 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n"/>
-      <c r="B122" s="2" t="n"/>
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr"/>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4405,32 +4401,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
+      <c r="A123" s="2" t="n"/>
+      <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
@@ -4449,24 +4441,24 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4480,24 +4472,24 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4511,14 +4503,14 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4542,14 +4534,14 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4573,14 +4565,14 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -4599,24 +4591,24 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr">
@@ -4635,24 +4627,24 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4666,24 +4658,24 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4697,14 +4689,14 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4728,14 +4720,14 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4750,28 +4742,32 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n"/>
-      <c r="B134" s="2" t="n"/>
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr"/>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4781,19 +4777,11 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr"/>
@@ -4801,7 +4789,7 @@
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -4820,25 +4808,33 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr"/>
-      <c r="E136" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4857,13 +4853,13 @@
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4873,7 +4869,7 @@
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4892,13 +4888,13 @@
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4927,13 +4923,13 @@
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4962,13 +4958,13 @@
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4978,7 +4974,7 @@
       </c>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4992,23 +4988,19 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -5022,24 +5014,20 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -5053,15 +5041,19 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -5071,7 +5063,7 @@
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5085,19 +5077,19 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -5111,29 +5103,25 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr"/>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5130,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5150,12 +5138,12 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
@@ -5169,7 +5157,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5177,7 +5165,7 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -5196,7 +5184,7 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5204,12 +5192,12 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
@@ -5219,11 +5207,19 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5231,34 +5227,26 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A150" s="2" t="n"/>
+      <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr"/>
@@ -5266,17 +5254,17 @@
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5273,7 @@
       <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5293,7 +5281,7 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -5312,7 +5300,7 @@
       <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr"/>
@@ -5320,7 +5308,7 @@
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -5339,7 +5327,7 @@
       <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr"/>
@@ -5347,7 +5335,7 @@
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -5362,11 +5350,19 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n"/>
-      <c r="B154" s="2" t="n"/>
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr"/>
@@ -5374,7 +5370,7 @@
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5384,24 +5380,16 @@
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A155" s="2" t="n"/>
+      <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr"/>
@@ -5409,12 +5397,12 @@
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5428,20 +5416,24 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -5460,24 +5452,24 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5491,19 +5483,19 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
@@ -5522,14 +5514,14 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5548,19 +5540,19 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5584,14 +5576,14 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5615,14 +5607,14 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5646,14 +5638,14 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5668,50 +5660,46 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n"/>
-      <c r="B164" s="2" t="n"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr"/>
       <c r="E164" s="2" t="inlineStr"/>
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5719,12 +5707,12 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
@@ -5738,7 +5726,7 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5746,17 +5734,17 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5753,7 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr"/>
@@ -5773,17 +5761,17 @@
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5780,7 @@
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr"/>
@@ -5800,17 +5788,17 @@
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5807,7 @@
       <c r="B169" s="2" t="n"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr"/>
@@ -5827,12 +5815,12 @@
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5846,7 +5834,7 @@
       <c r="B170" s="2" t="n"/>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr"/>
@@ -5854,26 +5842,34 @@
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n"/>
-      <c r="B171" s="2" t="n"/>
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr"/>
@@ -5881,7 +5877,7 @@
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5896,32 +5892,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A172" s="2" t="n"/>
+      <c r="B172" s="2" t="n"/>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -5940,14 +5932,14 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -5971,19 +5963,23 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
@@ -6007,13 +6003,17 @@
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
@@ -6047,22 +6047,22 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6120,17 +6120,13 @@
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6140,7 +6136,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6154,28 +6150,28 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6194,13 +6190,17 @@
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -6234,22 +6234,22 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I181" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6273,12 +6273,12 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6307,17 +6307,13 @@
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
@@ -6327,7 +6323,7 @@
       </c>
       <c r="I183" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6336,23 +6332,15 @@
       <c r="B184" s="2" t="n"/>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr"/>
+      <c r="E184" s="2" t="inlineStr"/>
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
@@ -6362,7 +6350,7 @@
       </c>
       <c r="I184" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6359,7 @@
       <c r="B185" s="2" t="n"/>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr"/>
@@ -6379,7 +6367,7 @@
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -6398,7 +6386,7 @@
       <c r="B186" s="2" t="n"/>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr"/>
@@ -6406,7 +6394,7 @@
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -6421,11 +6409,19 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n"/>
-      <c r="B187" s="2" t="n"/>
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr"/>
@@ -6433,7 +6429,7 @@
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -6448,19 +6444,11 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A188" s="2" t="n"/>
+      <c r="B188" s="2" t="n"/>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr"/>
@@ -6468,39 +6456,51 @@
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I188" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n"/>
-      <c r="B189" s="2" t="n"/>
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I189" s="2" t="inlineStr">
@@ -6510,16 +6510,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A190" s="2" t="n"/>
+      <c r="B190" s="2" t="n"/>
       <c r="C190" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -6527,19 +6519,19 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I190" s="2" t="inlineStr">
@@ -6558,14 +6550,14 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -6589,19 +6581,19 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I192" s="2" t="inlineStr">
@@ -6620,14 +6612,14 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
@@ -6651,14 +6643,14 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -6682,14 +6674,14 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr"/>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
@@ -6713,19 +6705,19 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I196" s="2" t="inlineStr">
@@ -6744,14 +6736,14 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -6766,50 +6758,46 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n"/>
-      <c r="B198" s="2" t="n"/>
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr"/>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I198" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A199" s="2" t="n"/>
+      <c r="B199" s="2" t="n"/>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr"/>
@@ -6817,12 +6805,12 @@
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I199" s="2" t="inlineStr">
@@ -6836,7 +6824,7 @@
       <c r="B200" s="2" t="n"/>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr"/>
@@ -6844,17 +6832,17 @@
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I200" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6863,15 +6851,19 @@
       <c r="B201" s="2" t="n"/>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -6881,7 +6873,7 @@
       </c>
       <c r="I201" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6895,14 +6887,14 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
       <c r="F202" s="2" t="inlineStr"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
@@ -6926,14 +6918,14 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
@@ -6948,28 +6940,32 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n"/>
-      <c r="B204" s="2" t="n"/>
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr"/>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I204" s="2" t="inlineStr">
@@ -6979,19 +6975,11 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A205" s="2" t="n"/>
+      <c r="B205" s="2" t="n"/>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr"/>
@@ -6999,26 +6987,34 @@
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n"/>
-      <c r="B206" s="2" t="n"/>
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr"/>
@@ -7026,34 +7022,26 @@
       <c r="F206" s="2" t="inlineStr"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I206" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A207" s="2" t="n"/>
+      <c r="B207" s="2" t="n"/>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr"/>
@@ -7061,7 +7049,7 @@
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -7076,24 +7064,36 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n"/>
-      <c r="B208" s="2" t="n"/>
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I208" s="2" t="inlineStr">
@@ -7103,16 +7103,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A209" s="2" t="n"/>
+      <c r="B209" s="2" t="n"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -7120,24 +7112,24 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7151,24 +7143,24 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I210" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7182,14 +7174,14 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -7213,14 +7205,14 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
@@ -7235,28 +7227,32 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n"/>
-      <c r="B213" s="2" t="n"/>
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr"/>
       <c r="E213" s="2" t="inlineStr"/>
       <c r="F213" s="2" t="inlineStr"/>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I213" s="2" t="inlineStr">
@@ -7266,19 +7262,11 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A214" s="2" t="n"/>
+      <c r="B214" s="2" t="n"/>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr"/>
@@ -7286,17 +7274,17 @@
       <c r="F214" s="2" t="inlineStr"/>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H214" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I214" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7293,7 @@
       <c r="B215" s="2" t="n"/>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr"/>
@@ -7313,17 +7301,17 @@
       <c r="F215" s="2" t="inlineStr"/>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="H215" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I215" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7332,7 +7320,7 @@
       <c r="B216" s="2" t="n"/>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="D216" s="2" t="inlineStr"/>
@@ -7340,42 +7328,15 @@
       <c r="F216" s="2" t="inlineStr"/>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I216" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n"/>
-      <c r="B217" s="2" t="n"/>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr"/>
-      <c r="E217" s="2" t="inlineStr"/>
-      <c r="F217" s="2" t="inlineStr"/>
-      <c r="G217" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7383,68 +7344,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B135:B149"/>
-    <mergeCell ref="B123:B134"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="B68"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A164"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A123:A134"/>
-    <mergeCell ref="B172:B187"/>
-    <mergeCell ref="A214:A217"/>
-    <mergeCell ref="A165:A171"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A190:A198"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B155:B164"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B53:B67"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A135:A149"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="B165:B171"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="A172:A187"/>
-    <mergeCell ref="B190:B198"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A199:A204"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A189:A197"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="B52:B66"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B107:B113"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B134:B148"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B154:B163"/>
+    <mergeCell ref="B171:B186"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A67"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B122:B133"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A171:A186"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B189:B197"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A134:A148"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="B67"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="A154:A163"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A52:A66"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="B114:B121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,75 +1068,67 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1148,7 +1136,7 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1167,7 +1155,7 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1175,7 +1163,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1194,7 +1182,7 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1202,7 +1190,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1221,7 +1209,7 @@
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>New public road</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1229,7 +1217,7 @@
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1248,20 +1236,24 @@
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1280,14 +1272,14 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1302,23 +1294,27 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1333,27 +1329,23 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1377,14 +1369,18 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1394,7 +1390,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1413,18 +1409,18 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -1434,51 +1430,47 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1486,14 +1478,18 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1503,7 +1499,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1522,13 +1518,13 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1557,13 +1553,13 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1592,13 +1588,13 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1627,13 +1623,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1643,7 +1639,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,18 +1653,14 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1692,19 +1684,19 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -1714,58 +1706,58 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="2" t="n"/>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1789,14 +1781,18 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,18 +1821,18 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -1846,51 +1842,47 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1898,14 +1890,18 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1915,7 +1911,7 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1934,13 +1930,13 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1950,7 +1946,7 @@
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1969,13 +1965,13 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2004,13 +2000,13 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2039,13 +2035,13 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2055,59 +2051,51 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2115,7 +2103,7 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2134,7 +2122,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2142,7 +2130,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2157,11 +2145,19 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Geological features impact</t>
+          <t>Biodiversity gain condition applies</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2169,12 +2165,12 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2184,32 +2180,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2228,19 +2220,19 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2254,24 +2246,24 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2290,19 +2282,19 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2321,24 +2313,24 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2352,19 +2344,19 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2383,24 +2375,28 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2419,18 +2415,18 @@
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2454,23 +2450,23 @@
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2484,28 +2480,24 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2519,19 +2511,19 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
@@ -2550,24 +2542,24 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2581,14 +2573,18 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2598,7 +2594,7 @@
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2617,13 +2613,13 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2638,27 +2634,27 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2675,17 +2671,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2693,12 +2689,12 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2708,19 +2704,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2728,17 +2716,17 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2735,7 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -2755,7 +2743,7 @@
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2770,11 +2758,19 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -2782,7 +2778,7 @@
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2792,24 +2788,16 @@
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2817,12 +2805,12 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2836,7 +2824,7 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -2844,12 +2832,12 @@
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2859,24 +2847,36 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2886,16 +2886,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2903,14 +2895,14 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2934,14 +2926,14 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2960,19 +2952,19 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2996,14 +2988,14 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -3027,14 +3019,14 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -3053,70 +3045,70 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr"/>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -3124,24 +3116,24 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3155,14 +3147,14 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3172,7 +3164,7 @@
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3181,24 +3173,20 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -3212,7 +3200,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3220,17 +3208,17 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3227,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3247,12 +3235,12 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3266,7 +3254,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3274,17 +3262,17 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3281,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3301,7 +3289,7 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -3320,7 +3308,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3328,7 +3316,7 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -3347,7 +3335,7 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3355,26 +3343,34 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3382,34 +3378,26 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3417,17 +3405,17 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3424,7 @@
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3444,12 +3432,12 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
@@ -3463,7 +3451,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3471,17 +3459,17 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3478,7 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3498,7 +3486,7 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3517,7 +3505,7 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3525,12 +3513,12 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3540,11 +3528,19 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3552,12 +3548,12 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3567,19 +3563,11 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3587,17 +3575,17 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3594,7 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3614,17 +3602,17 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3621,7 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3641,26 +3629,34 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>What hazardous substances may be used as part of the development</t>
+        </is>
+      </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3668,42 +3664,38 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A101" s="2" t="n"/>
+      <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3727,24 +3719,24 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3758,24 +3750,24 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3784,24 +3776,20 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3815,7 +3803,7 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr"/>
@@ -3823,58 +3811,62 @@
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n"/>
-      <c r="B106" s="2" t="n"/>
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A107" s="2" t="n"/>
+      <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3882,24 +3874,24 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3913,24 +3905,28 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3949,23 +3945,23 @@
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3984,23 +3980,27 @@
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4024,12 +4024,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4053,77 +4053,69 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -4131,24 +4123,24 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4162,14 +4154,14 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4193,19 +4185,19 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -4224,14 +4216,14 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4250,19 +4242,15 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr"/>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4272,7 +4260,7 @@
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4281,20 +4269,24 @@
       <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
@@ -4313,14 +4305,14 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4335,28 +4327,32 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n"/>
-      <c r="B121" s="2" t="n"/>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr"/>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -4366,32 +4362,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
+      <c r="A122" s="2" t="n"/>
+      <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4410,24 +4402,24 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4441,24 +4433,24 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4472,14 +4464,14 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4503,14 +4495,14 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4534,14 +4526,14 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4560,24 +4552,24 @@
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4596,24 +4588,24 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4627,24 +4619,24 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4658,14 +4650,14 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4689,14 +4681,14 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4711,28 +4703,32 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n"/>
-      <c r="B133" s="2" t="n"/>
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr"/>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4742,19 +4738,11 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A134" s="2" t="n"/>
+      <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr"/>
@@ -4762,7 +4750,7 @@
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -4781,25 +4769,33 @@
       <c r="B135" s="2" t="n"/>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr"/>
-      <c r="E135" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4818,13 +4814,13 @@
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -4834,7 +4830,7 @@
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4853,13 +4849,13 @@
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4888,13 +4884,13 @@
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4923,13 +4919,13 @@
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4939,7 +4935,7 @@
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4953,23 +4949,19 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -4983,24 +4975,20 @@
       <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr"/>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -5014,15 +5002,19 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -5032,7 +5024,7 @@
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5046,19 +5038,19 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -5072,29 +5064,25 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr"/>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5091,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5111,12 +5099,12 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
@@ -5130,7 +5118,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5138,7 +5126,7 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5157,7 +5145,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5165,12 +5153,12 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -5180,11 +5168,19 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5192,34 +5188,26 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5227,17 +5215,17 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5234,7 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr"/>
@@ -5254,7 +5242,7 @@
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -5273,7 +5261,7 @@
       <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr"/>
@@ -5281,7 +5269,7 @@
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -5300,7 +5288,7 @@
       <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr"/>
@@ -5308,7 +5296,7 @@
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -5323,11 +5311,19 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n"/>
-      <c r="B153" s="2" t="n"/>
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr"/>
@@ -5335,7 +5331,7 @@
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -5345,24 +5341,16 @@
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A154" s="2" t="n"/>
+      <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr"/>
@@ -5370,12 +5358,12 @@
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -5389,20 +5377,24 @@
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5421,24 +5413,24 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5452,19 +5444,19 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
@@ -5483,14 +5475,14 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -5509,19 +5501,19 @@
       <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5545,14 +5537,14 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5576,14 +5568,14 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5607,14 +5599,14 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5629,50 +5621,46 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n"/>
-      <c r="B163" s="2" t="n"/>
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr"/>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5680,12 +5668,12 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
@@ -5699,7 +5687,7 @@
       <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5707,17 +5695,17 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5714,7 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5734,17 +5722,17 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5741,7 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr"/>
@@ -5761,17 +5749,17 @@
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5768,7 @@
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr"/>
@@ -5788,12 +5776,12 @@
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
@@ -5807,7 +5795,7 @@
       <c r="B169" s="2" t="n"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr"/>
@@ -5815,26 +5803,34 @@
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n"/>
-      <c r="B170" s="2" t="n"/>
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr"/>
@@ -5842,7 +5838,7 @@
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -5857,32 +5853,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A171" s="2" t="n"/>
+      <c r="B171" s="2" t="n"/>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
@@ -5901,14 +5893,14 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -5932,19 +5924,23 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -5968,13 +5964,17 @@
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -6008,22 +6008,22 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6047,12 +6047,12 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6081,17 +6081,13 @@
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -6101,7 +6097,7 @@
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6115,28 +6111,28 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6155,13 +6151,17 @@
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -6195,22 +6195,22 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I180" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6234,12 +6234,12 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="I181" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6268,17 +6268,13 @@
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
@@ -6288,7 +6284,7 @@
       </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6297,23 +6293,15 @@
       <c r="B183" s="2" t="n"/>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr"/>
+      <c r="E183" s="2" t="inlineStr"/>
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
@@ -6323,7 +6311,7 @@
       </c>
       <c r="I183" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6320,7 @@
       <c r="B184" s="2" t="n"/>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr"/>
@@ -6340,7 +6328,7 @@
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
@@ -6359,7 +6347,7 @@
       <c r="B185" s="2" t="n"/>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr"/>
@@ -6367,7 +6355,7 @@
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -6382,11 +6370,19 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n"/>
-      <c r="B186" s="2" t="n"/>
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr"/>
@@ -6394,7 +6390,7 @@
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -6409,19 +6405,11 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A187" s="2" t="n"/>
+      <c r="B187" s="2" t="n"/>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr"/>
@@ -6429,39 +6417,51 @@
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I187" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n"/>
-      <c r="B188" s="2" t="n"/>
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I188" s="2" t="inlineStr">
@@ -6471,16 +6471,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A189" s="2" t="n"/>
+      <c r="B189" s="2" t="n"/>
       <c r="C189" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -6488,19 +6480,19 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I189" s="2" t="inlineStr">
@@ -6519,14 +6511,14 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -6550,19 +6542,19 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I191" s="2" t="inlineStr">
@@ -6581,14 +6573,14 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -6612,14 +6604,14 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
@@ -6643,14 +6635,14 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
@@ -6674,19 +6666,19 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr"/>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I195" s="2" t="inlineStr">
@@ -6705,14 +6697,14 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
@@ -6727,50 +6719,46 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n"/>
-      <c r="B197" s="2" t="n"/>
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr"/>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I197" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A198" s="2" t="n"/>
+      <c r="B198" s="2" t="n"/>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr"/>
@@ -6778,12 +6766,12 @@
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I198" s="2" t="inlineStr">
@@ -6797,7 +6785,7 @@
       <c r="B199" s="2" t="n"/>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr"/>
@@ -6805,17 +6793,17 @@
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I199" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6824,15 +6812,19 @@
       <c r="B200" s="2" t="n"/>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E200" s="2" t="inlineStr"/>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -6842,7 +6834,7 @@
       </c>
       <c r="I200" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6856,14 +6848,14 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -6887,14 +6879,14 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
       <c r="F202" s="2" t="inlineStr"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
@@ -6909,28 +6901,32 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n"/>
-      <c r="B203" s="2" t="n"/>
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr"/>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I203" s="2" t="inlineStr">
@@ -6940,19 +6936,11 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A204" s="2" t="n"/>
+      <c r="B204" s="2" t="n"/>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr"/>
@@ -6960,26 +6948,34 @@
       <c r="F204" s="2" t="inlineStr"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I204" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n"/>
-      <c r="B205" s="2" t="n"/>
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr"/>
@@ -6987,34 +6983,26 @@
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A206" s="2" t="n"/>
+      <c r="B206" s="2" t="n"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr"/>
@@ -7022,7 +7010,7 @@
       <c r="F206" s="2" t="inlineStr"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
@@ -7037,24 +7025,36 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n"/>
-      <c r="B207" s="2" t="n"/>
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="E207" s="2" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I207" s="2" t="inlineStr">
@@ -7064,16 +7064,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A208" s="2" t="n"/>
+      <c r="B208" s="2" t="n"/>
       <c r="C208" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -7081,24 +7073,24 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I208" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7112,24 +7104,24 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7143,14 +7135,14 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -7174,14 +7166,14 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
@@ -7196,28 +7188,32 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n"/>
-      <c r="B212" s="2" t="n"/>
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr"/>
       <c r="E212" s="2" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I212" s="2" t="inlineStr">
@@ -7227,19 +7223,11 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A213" s="2" t="n"/>
+      <c r="B213" s="2" t="n"/>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr"/>
@@ -7247,17 +7235,17 @@
       <c r="F213" s="2" t="inlineStr"/>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I213" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7254,7 @@
       <c r="B214" s="2" t="n"/>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr"/>
@@ -7274,17 +7262,17 @@
       <c r="F214" s="2" t="inlineStr"/>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="H214" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I214" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7281,7 @@
       <c r="B215" s="2" t="n"/>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr"/>
@@ -7301,42 +7289,15 @@
       <c r="F215" s="2" t="inlineStr"/>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H215" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I215" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n"/>
-      <c r="B216" s="2" t="n"/>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="inlineStr"/>
-      <c r="E216" s="2" t="inlineStr"/>
-      <c r="F216" s="2" t="inlineStr"/>
-      <c r="G216" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7344,68 +7305,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A189:A197"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A114:A121"/>
-    <mergeCell ref="B52:B66"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B134:B148"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B154:B163"/>
-    <mergeCell ref="B171:B186"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B122:B133"/>
-    <mergeCell ref="B81:B90"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A171:A186"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B189:B197"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A134:A148"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="A154:A163"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A52:A66"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="A121:A132"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="B207:B211"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B121:B132"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="A133:A147"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A153:A162"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B163:B169"/>
+    <mergeCell ref="A170:A185"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B188:B196"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="B133:B147"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B51:B65"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B170:B185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="B113:B120"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="B148:B152"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,67 +1068,75 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1136,7 +1144,7 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1155,7 +1163,7 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1163,7 +1171,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1182,7 +1190,7 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>New right of way</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1190,7 +1198,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Will new public rights of way be provided within or adjacent to the site</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1209,7 +1217,7 @@
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>New public road</t>
+          <t>New right of way</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1217,7 +1225,7 @@
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Will new public roads be provided within the site</t>
+          <t>Will new public rights of way be provided within or adjacent to the site</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1236,24 +1244,20 @@
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>New public road</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Will new public roads be provided within the site</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1272,14 +1276,14 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2599,27 +2603,27 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2636,17 +2640,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2654,12 +2658,12 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -2669,19 +2673,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2689,17 +2685,17 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2704,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2716,7 +2712,7 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2731,11 +2727,19 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -2743,7 +2747,7 @@
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2753,24 +2757,16 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -2778,12 +2774,12 @@
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -2797,7 +2793,7 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -2805,12 +2801,12 @@
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2820,24 +2816,36 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2847,16 +2855,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2864,14 +2864,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2895,14 +2895,14 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2921,19 +2921,19 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2988,14 +2988,14 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -3014,70 +3014,70 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -3085,24 +3085,24 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3116,14 +3116,14 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3142,24 +3142,20 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
@@ -3173,7 +3169,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3181,17 +3177,17 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3196,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3208,12 +3204,12 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -3227,7 +3223,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3235,17 +3231,17 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3250,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3262,7 +3258,7 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -3281,7 +3277,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3289,7 +3285,7 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -3308,7 +3304,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3316,26 +3312,34 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3343,34 +3347,26 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3378,17 +3374,17 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3393,7 @@
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3405,12 +3401,12 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -3424,7 +3420,7 @@
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3432,17 +3428,17 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3447,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3459,7 +3455,7 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3478,7 +3474,7 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3486,12 +3482,12 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
@@ -3501,11 +3497,19 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3513,12 +3517,12 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3528,19 +3532,11 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3548,17 +3544,17 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3563,7 @@
       <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3575,17 +3571,17 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3590,7 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3602,26 +3598,34 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3629,42 +3633,38 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -3688,24 +3688,24 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3719,50 +3719,58 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Hours of operation[]</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -3776,25 +3784,29 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>Use other</t>
+        </is>
+      </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3803,39 +3815,39 @@
       <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr"/>
-      <c r="E105" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3843,24 +3855,28 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3874,14 +3890,22 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3891,7 +3915,7 @@
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3910,18 +3934,22 @@
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>Close time</t>
+        </is>
+      </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3940,18 +3968,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3966,36 +3990,36 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>Open time</t>
-        </is>
-      </c>
+          <t>Building element type</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -4009,27 +4033,19 @@
       <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Existing materials</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr"/>
+      <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4039,7 +4055,7 @@
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4048,24 +4064,24 @@
       <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -4075,16 +4091,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -4092,24 +4100,24 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4123,19 +4131,19 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
@@ -4149,29 +4157,25 @@
       <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t>Proposed materials</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr"/>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4180,50 +4184,54 @@
       <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
+          <t>Supporting documents[]</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n"/>
-      <c r="B117" s="2" t="n"/>
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr"/>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4233,7 +4241,7 @@
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4242,20 +4250,24 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -4269,19 +4281,19 @@
       <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Floorspace details[]</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4291,7 +4303,7 @@
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4300,24 +4312,24 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
+          <t>Floorspace details[]</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -4327,32 +4339,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
+      <c r="A121" s="2" t="n"/>
+      <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>Floorspace lost</t>
+        </is>
+      </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -4371,19 +4379,19 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4402,24 +4410,24 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4428,24 +4436,24 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -4459,29 +4467,29 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4490,19 +4498,19 @@
       <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4521,19 +4529,19 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4557,19 +4565,19 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4579,33 +4587,37 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n"/>
-      <c r="B129" s="2" t="n"/>
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="inlineStr">
-        <is>
-          <t>Use other</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr"/>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4614,24 +4626,20 @@
       <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr">
-        <is>
-          <t>Existing rooms lost</t>
-        </is>
-      </c>
+          <t>Agricultural tenants</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr"/>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -4645,29 +4653,33 @@
       <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
+          <t>Owners and tenants[]</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4676,24 +4688,28 @@
       <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
+          <t>Owners and tenants[]</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
@@ -4703,32 +4719,32 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A133" s="2" t="n"/>
+      <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr"/>
-      <c r="E133" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4742,20 +4758,28 @@
       <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr"/>
-      <c r="E134" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4779,13 +4803,13 @@
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -4809,28 +4833,24 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4839,23 +4859,15 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr"/>
+      <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4865,7 +4877,7 @@
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4874,23 +4886,19 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Newspaper name</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4909,33 +4917,29 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
+          <t>Newspaper notices[]</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Publication date</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4944,24 +4948,20 @@
       <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr"/>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -4975,7 +4975,7 @@
       <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
@@ -4983,7 +4983,7 @@
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -5002,19 +5002,15 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>Newspaper name</t>
-        </is>
-      </c>
+          <t>Agent signature</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -5024,7 +5020,7 @@
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5033,19 +5029,15 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Signature date</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr"/>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -5055,16 +5047,24 @@
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5072,17 +5072,17 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5099,7 +5099,7 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5118,7 +5118,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5126,7 +5126,7 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5145,7 +5145,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5153,12 +5153,12 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
@@ -5168,19 +5168,11 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5188,26 +5180,34 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5215,7 +5215,7 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="I149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr"/>
@@ -5242,17 +5242,17 @@
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5261,25 +5261,29 @@
       <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5288,20 +5292,24 @@
       <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
@@ -5311,37 +5319,33 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A153" s="2" t="n"/>
+      <c r="B153" s="2" t="n"/>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>Total capacity</t>
+        </is>
+      </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5350,25 +5354,29 @@
       <c r="B154" s="2" t="n"/>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>Annual throughput</t>
+        </is>
+      </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5377,29 +5385,29 @@
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5408,24 +5416,24 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -5439,19 +5447,19 @@
       <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5470,19 +5478,19 @@
       <c r="B158" s="2" t="n"/>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -5497,33 +5505,37 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n"/>
-      <c r="B159" s="2" t="n"/>
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr"/>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5532,29 +5544,25 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>Construction demolition</t>
-        </is>
-      </c>
+          <t>Proposal started</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr"/>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5563,24 +5571,20 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>Commercial industrial</t>
-        </is>
-      </c>
+          <t>Proposal start date</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr"/>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
@@ -5594,46 +5598,34 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal completed</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr"/>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A163" s="2" t="n"/>
+      <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5641,17 +5633,17 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5652,7 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5668,17 +5660,17 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5679,7 @@
       <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5695,26 +5687,34 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5722,7 +5722,7 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -5741,25 +5741,29 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5768,25 +5772,29 @@
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>Housing type</t>
+        </is>
+      </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5795,15 +5803,23 @@
       <c r="B169" s="2" t="n"/>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="inlineStr"/>
-      <c r="E169" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -5818,27 +5834,31 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A170" s="2" t="n"/>
+      <c r="B170" s="2" t="n"/>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="inlineStr"/>
-      <c r="E170" s="2" t="inlineStr"/>
-      <c r="F170" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -5862,24 +5882,32 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr"/>
-      <c r="F171" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5893,19 +5921,27 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr"/>
-      <c r="F172" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -5929,23 +5965,23 @@
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
+          <t>Total units</t>
         </is>
       </c>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5959,22 +5995,18 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -5998,7 +6030,7 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
@@ -6008,22 +6040,22 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6069,7 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
@@ -6047,12 +6079,12 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -6062,7 +6094,7 @@
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6076,18 +6108,22 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -6097,7 +6133,7 @@
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6116,23 +6152,23 @@
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
+          <t>Total units</t>
         </is>
       </c>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6141,32 +6177,20 @@
       <c r="B179" s="2" t="n"/>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr"/>
+      <c r="E179" s="2" t="inlineStr"/>
+      <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
@@ -6180,27 +6204,15 @@
       <c r="B180" s="2" t="n"/>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Total proposed units</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr"/>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -6210,7 +6222,7 @@
       </c>
       <c r="I180" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6219,27 +6231,15 @@
       <c r="B181" s="2" t="n"/>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Net change</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr"/>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
@@ -6254,27 +6254,27 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n"/>
-      <c r="B182" s="2" t="n"/>
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr"/>
+      <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="I182" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       <c r="B183" s="2" t="n"/>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr"/>
@@ -6301,44 +6301,56 @@
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I183" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n"/>
-      <c r="B184" s="2" t="n"/>
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E184" s="2" t="inlineStr"/>
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I184" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6347,60 +6359,60 @@
       <c r="B185" s="2" t="n"/>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="E185" s="2" t="inlineStr"/>
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I185" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A186" s="2" t="n"/>
+      <c r="B186" s="2" t="n"/>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="E186" s="2" t="inlineStr"/>
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I186" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6409,20 +6421,24 @@
       <c r="B187" s="2" t="n"/>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I187" s="2" t="inlineStr">
@@ -6432,16 +6448,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A188" s="2" t="n"/>
+      <c r="B188" s="2" t="n"/>
       <c r="C188" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -6449,19 +6457,19 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I188" s="2" t="inlineStr">
@@ -6480,19 +6488,19 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I189" s="2" t="inlineStr">
@@ -6511,19 +6519,19 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I190" s="2" t="inlineStr">
@@ -6542,19 +6550,19 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I191" s="2" t="inlineStr">
@@ -6573,19 +6581,19 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I192" s="2" t="inlineStr">
@@ -6595,33 +6603,37 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n"/>
-      <c r="B193" s="2" t="n"/>
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr"/>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I193" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6630,29 +6642,25 @@
       <c r="B194" s="2" t="n"/>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr"/>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I194" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6661,19 +6669,15 @@
       <c r="B195" s="2" t="n"/>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr"/>
       <c r="E195" s="2" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr"/>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
@@ -6692,19 +6696,19 @@
       <c r="B196" s="2" t="n"/>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
@@ -6714,37 +6718,33 @@
       </c>
       <c r="I196" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A197" s="2" t="n"/>
+      <c r="B197" s="2" t="n"/>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I197" s="2" t="inlineStr">
@@ -6758,20 +6758,24 @@
       <c r="B198" s="2" t="n"/>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I198" s="2" t="inlineStr">
@@ -6781,11 +6785,19 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n"/>
-      <c r="B199" s="2" t="n"/>
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr"/>
@@ -6793,17 +6805,17 @@
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I199" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6812,19 +6824,15 @@
       <c r="B200" s="2" t="n"/>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr"/>
       <c r="E200" s="2" t="inlineStr"/>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -6834,33 +6842,37 @@
       </c>
       <c r="I200" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n"/>
-      <c r="B201" s="2" t="n"/>
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Trees on site</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr"/>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I201" s="2" t="inlineStr">
@@ -6874,24 +6886,20 @@
       <c r="B202" s="2" t="n"/>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr"/>
       <c r="E202" s="2" t="inlineStr"/>
       <c r="F202" s="2" t="inlineStr"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I202" s="2" t="inlineStr">
@@ -6903,30 +6911,34 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>Trade effluent</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I203" s="2" t="inlineStr">
@@ -6940,15 +6952,19 @@
       <c r="B204" s="2" t="n"/>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle type other</t>
+        </is>
+      </c>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
@@ -6963,32 +6979,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A205" s="2" t="n"/>
+      <c r="B205" s="2" t="n"/>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>Total existing</t>
+        </is>
+      </c>
       <c r="E205" s="2" t="inlineStr"/>
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
@@ -7002,20 +7014,24 @@
       <c r="B206" s="2" t="n"/>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="E206" s="2" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I206" s="2" t="inlineStr">
@@ -7025,16 +7041,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A207" s="2" t="n"/>
+      <c r="B207" s="2" t="n"/>
       <c r="C207" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -7042,19 +7050,19 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I207" s="2" t="inlineStr">
@@ -7064,33 +7072,37 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n"/>
-      <c r="B208" s="2" t="n"/>
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr"/>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I208" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7099,29 +7111,25 @@
       <c r="B209" s="2" t="n"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>Total existing</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr"/>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7130,24 +7138,20 @@
       <c r="B210" s="2" t="n"/>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>Total proposed</t>
-        </is>
-      </c>
+          <t>Separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr"/>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I210" s="2" t="inlineStr">
@@ -7161,143 +7165,23 @@
       <c r="B211" s="2" t="n"/>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr"/>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I211" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>Needs waste storage area</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr"/>
-      <c r="E212" s="2" t="inlineStr"/>
-      <c r="F212" s="2" t="inlineStr"/>
-      <c r="G212" s="2" t="inlineStr">
-        <is>
-          <t>Does the proposal require a waste storage area</t>
-        </is>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n"/>
-      <c r="B213" s="2" t="n"/>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr"/>
-      <c r="E213" s="2" t="inlineStr"/>
-      <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="inlineStr">
-        <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
-        </is>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="n"/>
-      <c r="B214" s="2" t="n"/>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr"/>
-      <c r="E214" s="2" t="inlineStr"/>
-      <c r="F214" s="2" t="inlineStr"/>
-      <c r="G214" s="2" t="inlineStr">
-        <is>
-          <t>Does the proposal include separate recycling arrangements</t>
-        </is>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n"/>
-      <c r="B215" s="2" t="n"/>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr"/>
-      <c r="E215" s="2" t="inlineStr"/>
-      <c r="F215" s="2" t="inlineStr"/>
-      <c r="G215" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7305,68 +7189,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="A121:A132"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="B103:B109"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A208:A211"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="B207:B211"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A184:A192"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A117:A128"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B121:B132"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="A95:A98"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="A133:A147"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A153:A162"/>
+    <mergeCell ref="A193:A198"/>
+    <mergeCell ref="A129:A143"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="A89:A94"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="A170:A185"/>
-    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="B144:B148"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B188:B196"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="B133:B147"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A65"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B117:B128"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A166:A181"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="B89:B94"/>
     <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B184:B192"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B51:B65"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B170:B185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="B113:B120"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B80:B89"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="B129:B143"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B166:B181"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -3590,15 +3590,19 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -3608,7 +3612,7 @@
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5363,19 +5363,19 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -5389,19 +5389,19 @@
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -5420,24 +5420,24 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5487,14 +5487,14 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -5509,37 +5509,33 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A159" s="2" t="n"/>
+      <c r="B159" s="2" t="n"/>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>Commercial industrial</t>
+        </is>
+      </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5548,34 +5544,46 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n"/>
-      <c r="B161" s="2" t="n"/>
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr"/>
@@ -5583,17 +5591,17 @@
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5610,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5610,7 +5618,7 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5629,7 +5637,7 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5637,7 +5645,7 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5656,7 +5664,7 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5664,17 +5672,17 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5691,7 @@
       <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5691,34 +5699,26 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5726,17 +5726,17 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5745,24 +5745,20 @@
       <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+          <t>Is public service infrastructure</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr"/>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
@@ -5772,28 +5768,32 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n"/>
-      <c r="B168" s="2" t="n"/>
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr">
-        <is>
-          <t>Housing type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr"/>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
@@ -5812,23 +5812,19 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Tenure type</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5847,27 +5843,19 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
@@ -5891,27 +5879,23 @@
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5935,17 +5919,17 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -5969,13 +5953,17 @@
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -5999,23 +5987,27 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
@@ -6034,32 +6026,28 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6078,27 +6066,23 @@
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6122,17 +6106,17 @@
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
@@ -6156,13 +6140,17 @@
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6181,15 +6169,27 @@
       <c r="B179" s="2" t="n"/>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr"/>
-      <c r="E179" s="2" t="inlineStr"/>
-      <c r="F179" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -6208,15 +6208,23 @@
       <c r="B180" s="2" t="n"/>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr"/>
-      <c r="E180" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -6226,7 +6234,7 @@
       </c>
       <c r="I180" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6235,7 +6243,7 @@
       <c r="B181" s="2" t="n"/>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr"/>
@@ -6243,7 +6251,7 @@
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
@@ -6258,19 +6266,11 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A182" s="2" t="n"/>
+      <c r="B182" s="2" t="n"/>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr"/>
@@ -6278,7 +6278,7 @@
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
@@ -6297,7 +6297,7 @@
       <c r="B183" s="2" t="n"/>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr"/>
@@ -6305,56 +6305,52 @@
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I183" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>Site details</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr"/>
       <c r="E184" s="2" t="inlineStr"/>
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I184" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6363,24 +6359,20 @@
       <c r="B185" s="2" t="n"/>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr"/>
       <c r="E185" s="2" t="inlineStr"/>
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I185" s="2" t="inlineStr">
@@ -6390,8 +6382,16 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n"/>
-      <c r="B186" s="2" t="n"/>
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -6399,19 +6399,19 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I186" s="2" t="inlineStr">
@@ -6430,19 +6430,19 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I187" s="2" t="inlineStr">
@@ -6461,19 +6461,19 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I188" s="2" t="inlineStr">
@@ -6492,14 +6492,14 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -6523,14 +6523,14 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -6554,19 +6554,19 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I191" s="2" t="inlineStr">
@@ -6585,19 +6585,19 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I192" s="2" t="inlineStr">
@@ -6607,37 +6607,33 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A193" s="2" t="n"/>
+      <c r="B193" s="2" t="n"/>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I193" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6646,34 +6642,46 @@
       <c r="B194" s="2" t="n"/>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I194" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n"/>
-      <c r="B195" s="2" t="n"/>
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr"/>
@@ -6681,17 +6689,17 @@
       <c r="F195" s="2" t="inlineStr"/>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I195" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6700,24 +6708,20 @@
       <c r="B196" s="2" t="n"/>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr"/>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I196" s="2" t="inlineStr">
@@ -6731,19 +6735,15 @@
       <c r="B197" s="2" t="n"/>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr"/>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="I197" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6767,14 +6767,14 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -6789,32 +6789,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A199" s="2" t="n"/>
+      <c r="B199" s="2" t="n"/>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="E199" s="2" t="inlineStr"/>
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I199" s="2" t="inlineStr">
@@ -6828,15 +6824,19 @@
       <c r="B200" s="2" t="n"/>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E200" s="2" t="inlineStr"/>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
@@ -6846,24 +6846,24 @@
       </c>
       <c r="I200" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr"/>
@@ -6871,7 +6871,7 @@
       <c r="F201" s="2" t="inlineStr"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
@@ -6890,7 +6890,7 @@
       <c r="B202" s="2" t="n"/>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr"/>
@@ -6898,51 +6898,47 @@
       <c r="F202" s="2" t="inlineStr"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I202" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>Vehicle parking</t>
+          <t>Trees and hedges information</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Trees on site</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr"/>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I203" s="2" t="inlineStr">
@@ -6956,35 +6952,39 @@
       <c r="B204" s="2" t="n"/>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
+          <t>Trees on adjacent land</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr"/>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I204" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n"/>
-      <c r="B205" s="2" t="n"/>
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -6992,19 +6992,19 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
@@ -7023,24 +7023,24 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I206" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7054,14 +7054,14 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>Difference in spaces</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -7076,32 +7076,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A208" s="2" t="n"/>
+      <c r="B208" s="2" t="n"/>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I208" s="2" t="inlineStr">
@@ -7115,34 +7111,46 @@
       <c r="B209" s="2" t="n"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n"/>
-      <c r="B210" s="2" t="n"/>
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Needs waste storage area</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr"/>
@@ -7150,7 +7158,7 @@
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
@@ -7169,7 +7177,7 @@
       <c r="B211" s="2" t="n"/>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements details</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr"/>
@@ -7177,15 +7185,69 @@
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+        </is>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n"/>
+      <c r="B212" s="2" t="n"/>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr"/>
+      <c r="E212" s="2" t="inlineStr"/>
+      <c r="F212" s="2" t="inlineStr"/>
+      <c r="G212" s="2" t="inlineStr">
+        <is>
+          <t>Does the proposal include separate recycling arrangements</t>
+        </is>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n"/>
+      <c r="B213" s="2" t="n"/>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr"/>
+      <c r="E213" s="2" t="inlineStr"/>
+      <c r="F213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr">
+        <is>
           <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="inlineStr">
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7194,67 +7256,67 @@
   </sheetData>
   <mergeCells count="62">
     <mergeCell ref="B65"/>
-    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="B205:B209"/>
     <mergeCell ref="B103:B109"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B168:B183"/>
     <mergeCell ref="B79:B88"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A208:A211"/>
     <mergeCell ref="A30:A37"/>
     <mergeCell ref="A144:A148"/>
     <mergeCell ref="B51:B64"/>
     <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A184:A192"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="A117:A128"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B186:B194"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A159:A165"/>
     <mergeCell ref="A95:A98"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A193:A198"/>
     <mergeCell ref="A129:A143"/>
-    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="B210:B213"/>
     <mergeCell ref="B110:B116"/>
     <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B149:B160"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B144:B148"/>
+    <mergeCell ref="A161:A167"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="A210:A213"/>
     <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A184:A185"/>
     <mergeCell ref="A65"/>
+    <mergeCell ref="A203:A204"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B99:B102"/>
     <mergeCell ref="B117:B128"/>
-    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="A186:A194"/>
+    <mergeCell ref="A195:A200"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B159:B165"/>
-    <mergeCell ref="A199:A200"/>
     <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A166:A181"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A110:A116"/>
     <mergeCell ref="B89:B94"/>
+    <mergeCell ref="A149:A160"/>
     <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B184:B192"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="B161:B167"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A103:A109"/>
     <mergeCell ref="B129:B143"/>
     <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A168:A183"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B166:B181"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B203:B204"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3010,43 +3010,47 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -3054,24 +3058,24 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3085,14 +3089,14 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3102,7 +3106,7 @@
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3111,24 +3115,20 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -3142,7 +3142,7 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3150,17 +3150,17 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3177,12 +3177,12 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -3196,7 +3196,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3204,17 +3204,17 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3231,7 +3231,7 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3250,7 +3250,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3258,7 +3258,7 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -3277,7 +3277,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3285,26 +3285,34 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3312,34 +3320,26 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3347,17 +3347,17 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3374,12 +3374,12 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
@@ -3393,7 +3393,7 @@
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3401,17 +3401,17 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3447,7 +3447,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3455,12 +3455,12 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -3470,11 +3470,19 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>How waste water will leave the property as part of the proposed development</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3482,12 +3490,12 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
@@ -3497,19 +3505,11 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3517,17 +3517,17 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3544,17 +3544,17 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3563,20 +3563,24 @@
       <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3586,28 +3590,32 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Involves hazardous substances</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr"/>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
@@ -3617,27 +3625,23 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>Details of hazardous substances requiring consent used as part of the development</t>
-        </is>
-      </c>
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -3661,24 +3665,24 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3692,50 +3696,58 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n"/>
-      <c r="B102" s="2" t="n"/>
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Hours of operation[]</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3745,16 +3757,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A103" s="2" t="n"/>
+      <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3762,24 +3766,24 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3793,24 +3797,28 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3829,23 +3837,23 @@
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3864,23 +3872,27 @@
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3904,12 +3916,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3933,77 +3945,69 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Hours not known</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A110" s="2" t="n"/>
+      <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -4011,24 +4015,24 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4042,14 +4046,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4073,19 +4077,19 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -4104,14 +4108,14 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4130,19 +4134,15 @@
       <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr"/>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4161,20 +4161,24 @@
       <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
@@ -4184,28 +4188,32 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n"/>
-      <c r="B116" s="2" t="n"/>
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr"/>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -4215,32 +4223,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
+      <c r="A117" s="2" t="n"/>
+      <c r="B117" s="2" t="n"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -4259,24 +4263,24 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4290,24 +4294,24 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4321,14 +4325,14 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4352,14 +4356,14 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4383,14 +4387,14 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -4409,24 +4413,24 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
@@ -4445,24 +4449,24 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4476,24 +4480,24 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4507,14 +4511,14 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -4538,14 +4542,14 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4560,28 +4564,32 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr"/>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -4591,19 +4599,11 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A129" s="2" t="n"/>
+      <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
@@ -4611,7 +4611,7 @@
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4630,25 +4630,33 @@
       <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr"/>
-      <c r="E130" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4667,13 +4675,13 @@
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4683,7 +4691,7 @@
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4702,13 +4710,13 @@
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4737,13 +4745,13 @@
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -4772,13 +4780,13 @@
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -4788,7 +4796,7 @@
       </c>
       <c r="I134" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4802,23 +4810,19 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -4832,24 +4836,20 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr"/>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -4863,15 +4863,19 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4881,7 +4885,7 @@
       </c>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4895,19 +4899,19 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -4921,29 +4925,25 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr"/>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr"/>
@@ -4960,12 +4960,12 @@
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -4979,7 +4979,7 @@
       <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
@@ -4987,7 +4987,7 @@
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -5006,7 +5006,7 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -5014,12 +5014,12 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -5029,11 +5029,19 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -5041,34 +5049,26 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5076,17 +5076,17 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5103,7 +5103,7 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5122,7 +5122,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5130,7 +5130,7 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5149,7 +5149,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5157,7 +5157,7 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -5172,11 +5172,19 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5184,7 +5192,7 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -5194,24 +5202,16 @@
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr"/>
@@ -5219,12 +5219,12 @@
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -5238,20 +5238,24 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
@@ -5270,24 +5274,24 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5301,19 +5305,19 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
@@ -5332,19 +5336,19 @@
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
@@ -5363,19 +5367,19 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
@@ -5394,19 +5398,19 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5420,24 +5424,24 @@
       <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
@@ -5456,14 +5460,14 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5487,14 +5491,14 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -5518,14 +5522,14 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5540,50 +5544,46 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n"/>
-      <c r="B160" s="2" t="n"/>
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr"/>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A161" s="2" t="n"/>
+      <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr"/>
@@ -5591,12 +5591,12 @@
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I161" s="2" t="inlineStr">
@@ -5610,7 +5610,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5618,17 +5618,17 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5645,17 +5645,17 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I163" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5672,17 +5672,17 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>PIP reference</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5699,12 +5699,12 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
@@ -5718,7 +5718,7 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>PIP reference</t>
+          <t>Is public service infrastructure</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr"/>
@@ -5726,26 +5726,34 @@
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Reference number for the Planning in Principle (PIP) application this relates to</t>
+          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n"/>
-      <c r="B167" s="2" t="n"/>
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Is public service infrastructure</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr"/>
@@ -5753,7 +5761,7 @@
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>For applications made on or after 1 August 2021, is the proposal for public service infrastructure development</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -5768,32 +5776,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A168" s="2" t="n"/>
+      <c r="B168" s="2" t="n"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
@@ -5812,14 +5816,14 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -5843,19 +5847,23 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
@@ -5879,13 +5887,17 @@
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5919,22 +5931,22 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5958,12 +5970,12 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -5973,7 +5985,7 @@
       </c>
       <c r="I173" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5992,17 +6004,13 @@
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -6012,7 +6020,7 @@
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6026,28 +6034,28 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6066,13 +6074,17 @@
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -6106,22 +6118,22 @@
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6157,12 @@
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6160,7 +6172,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6179,17 +6191,13 @@
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -6199,7 +6207,7 @@
       </c>
       <c r="I179" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6208,23 +6216,15 @@
       <c r="B180" s="2" t="n"/>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr"/>
+      <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="I180" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       <c r="B181" s="2" t="n"/>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr"/>
@@ -6251,7 +6251,7 @@
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
@@ -6270,7 +6270,7 @@
       <c r="B182" s="2" t="n"/>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr"/>
@@ -6278,7 +6278,7 @@
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
@@ -6293,11 +6293,19 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n"/>
-      <c r="B183" s="2" t="n"/>
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr"/>
@@ -6305,7 +6313,7 @@
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
@@ -6320,19 +6328,11 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A184" s="2" t="n"/>
+      <c r="B184" s="2" t="n"/>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr"/>
@@ -6340,39 +6340,51 @@
       <c r="F184" s="2" t="inlineStr"/>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I184" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n"/>
-      <c r="B185" s="2" t="n"/>
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E185" s="2" t="inlineStr"/>
       <c r="F185" s="2" t="inlineStr"/>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I185" s="2" t="inlineStr">
@@ -6382,16 +6394,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A186" s="2" t="n"/>
+      <c r="B186" s="2" t="n"/>
       <c r="C186" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -6399,19 +6403,19 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I186" s="2" t="inlineStr">
@@ -6430,14 +6434,14 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -6461,19 +6465,19 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I188" s="2" t="inlineStr">
@@ -6492,14 +6496,14 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -6523,14 +6527,14 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -6554,14 +6558,14 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -6585,19 +6589,19 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I192" s="2" t="inlineStr">
@@ -6616,14 +6620,14 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
@@ -6638,50 +6642,46 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n"/>
-      <c r="B194" s="2" t="n"/>
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr"/>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I194" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A195" s="2" t="n"/>
+      <c r="B195" s="2" t="n"/>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr"/>
@@ -6689,12 +6689,12 @@
       <c r="F195" s="2" t="inlineStr"/>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I195" s="2" t="inlineStr">
@@ -6708,7 +6708,7 @@
       <c r="B196" s="2" t="n"/>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr"/>
@@ -6716,17 +6716,17 @@
       <c r="F196" s="2" t="inlineStr"/>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I196" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6735,15 +6735,19 @@
       <c r="B197" s="2" t="n"/>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
@@ -6753,7 +6757,7 @@
       </c>
       <c r="I197" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6767,14 +6771,14 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
@@ -6798,14 +6802,14 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
@@ -6820,28 +6824,32 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n"/>
-      <c r="B200" s="2" t="n"/>
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr"/>
       <c r="E200" s="2" t="inlineStr"/>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I200" s="2" t="inlineStr">
@@ -6851,19 +6859,11 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
+      <c r="A201" s="2" t="n"/>
+      <c r="B201" s="2" t="n"/>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr"/>
@@ -6871,26 +6871,34 @@
       <c r="F201" s="2" t="inlineStr"/>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I201" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n"/>
-      <c r="B202" s="2" t="n"/>
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Trees on site</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr"/>
@@ -6898,34 +6906,26 @@
       <c r="F202" s="2" t="inlineStr"/>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Whether trees or hedges are present on the proposed development site</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I202" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
+      <c r="A203" s="2" t="n"/>
+      <c r="B203" s="2" t="n"/>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Trees on site</t>
+          <t>Trees on adjacent land</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr"/>
@@ -6933,7 +6933,7 @@
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges are present on the proposed development site</t>
+          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
@@ -6948,24 +6948,36 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n"/>
-      <c r="B204" s="2" t="n"/>
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Trees on adjacent land</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges on land adjacent to the proposed development site could influence the development or might be important as part of the local landscape character</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I204" s="2" t="inlineStr">
@@ -6975,16 +6987,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A205" s="2" t="n"/>
+      <c r="B205" s="2" t="n"/>
       <c r="C205" s="2" t="inlineStr">
         <is>
           <t>Parking spaces[]</t>
@@ -6992,24 +6996,24 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7023,24 +7027,24 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr"/>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I206" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7054,14 +7058,14 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
@@ -7085,14 +7089,14 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
@@ -7107,28 +7111,32 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n"/>
-      <c r="B209" s="2" t="n"/>
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Needs waste storage area</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr"/>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Does the proposal require a waste storage area</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
@@ -7138,19 +7146,11 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
+      <c r="A210" s="2" t="n"/>
+      <c r="B210" s="2" t="n"/>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>Needs waste storage area</t>
+          <t>Waste storage area details</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr"/>
@@ -7158,17 +7158,17 @@
       <c r="F210" s="2" t="inlineStr"/>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal require a waste storage area</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I210" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
       <c r="B211" s="2" t="n"/>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr"/>
@@ -7185,17 +7185,17 @@
       <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Does the proposal include separate recycling arrangements</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I211" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="B212" s="2" t="n"/>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr"/>
@@ -7212,42 +7212,15 @@
       <c r="F212" s="2" t="inlineStr"/>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include separate recycling arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I212" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="n"/>
-      <c r="B213" s="2" t="n"/>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr"/>
-      <c r="E213" s="2" t="inlineStr"/>
-      <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7255,68 +7228,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B194:B199"/>
     <mergeCell ref="B65"/>
-    <mergeCell ref="B205:B209"/>
-    <mergeCell ref="B103:B109"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B168:B183"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="A160:A166"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A128:A142"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="A185:A193"/>
     <mergeCell ref="B51:B64"/>
-    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A109:A115"/>
     <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A117:A128"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B186:B194"/>
+    <mergeCell ref="A167:A182"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A143:A147"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A95:A98"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A129:A143"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B149:B160"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="A148:A159"/>
+    <mergeCell ref="A78:A87"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B88:B93"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B183:B184"/>
     <mergeCell ref="A65"/>
-    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="A200:A201"/>
     <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B117:B128"/>
-    <mergeCell ref="A186:A194"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B160:B166"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="B128:B142"/>
+    <mergeCell ref="B185:B193"/>
+    <mergeCell ref="B116:B127"/>
+    <mergeCell ref="A194:A199"/>
     <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A110:A116"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="A149:A160"/>
+    <mergeCell ref="B148:B159"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B167:B182"/>
     <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="B202:B203"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="B161:B167"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="B129:B143"/>
     <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A168:A183"/>
+    <mergeCell ref="A72:A77"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="A116:A127"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="A98:A101"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I162" s="2" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">

--- a/generated/spreadsheet/full-planning-permission-full.xlsx
+++ b/generated/spreadsheet/full-planning-permission-full.xlsx
@@ -5006,7 +5006,7 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -5014,12 +5014,12 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
